--- a/azota_assets/medias_en/de_mau_azota_excel_v2_1.xlsx
+++ b/azota_assets/medias_en/de_mau_azota_excel_v2_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenvantuan/sources/azota/frontend/frontend.azota1/core/ClientApp/src/assets/medias_en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BF8A52-CC34-9145-AF4E-20004075248C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7B8AEA-614C-B04B-88D3-FF309DB809BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="1560" windowWidth="27640" windowHeight="16440" xr2:uid="{A12E9DBD-A18D-C34D-AB25-D588A2DDE143}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A12E9DBD-A18D-C34D-AB25-D588A2DDE143}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,13 +109,13 @@
     <t>108</t>
   </si>
   <si>
-    <t xml:space="preserve">*Note: The code must have 3 digits. Example: 001, 010, 100 </t>
-  </si>
-  <si>
     <t>Each exam code has a maximum of 120 questions</t>
   </si>
   <si>
     <t>Enter TL if you want to add essay questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Note: The exam code must have 3 digits. Example: 001, 010, 100 </t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,7 +916,7 @@
     </row>
     <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -931,7 +931,7 @@
     </row>
     <row r="14" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -946,7 +946,7 @@
     </row>
     <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
